--- a/LF/TAS/Cote d'Ivoire/Sep 2024/ci_lf_tas1_2409_2_partcipants.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Sep 2024/ci_lf_tas1_2409_2_partcipants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Cote d'Ivoire\Apr 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Cote d'Ivoire\Sep 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395E251D-3647-4C1C-A0A3-F2E455A27678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850AE8DD-8979-4D52-9FEC-072837A2909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
     <t xml:space="preserve"> concat(${p_district_id}, '-', ${p_cluster_id}, '-' ,${p_num})</t>
   </si>
   <si>
-    <t>(2024 Avr) 2. TAS1 &amp; 2 FL - Participants V2</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_202404_2_partcipants_v2</t>
+    <t>ci_lf_tas1_2409_2_partcipants</t>
+  </si>
+  <si>
+    <t>(2024 Sept) 2. TAS2 FL - Participants</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1309,10 +1309,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>80</v>
